--- a/docs/kcap-nevar-fun_reqs.xlsx
+++ b/docs/kcap-nevar-fun_reqs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t xml:space="preserve">Req status (*)</t>
   </si>
@@ -40,25 +40,16 @@
     <t xml:space="preserve">User task</t>
   </si>
   <si>
-    <t xml:space="preserve">User journey – brief description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main system operations</t>
-  </si>
-  <si>
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Human data I/O</t>
-  </si>
-  <si>
     <t xml:space="preserve">Constraints</t>
   </si>
   <si>
     <t xml:space="preserve">Notes, questions</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">WIP</t>
   </si>
   <si>
     <t xml:space="preserve">N/D</t>
@@ -76,18 +67,9 @@
     <t xml:space="preserve">Create an account, to become a voter</t>
   </si>
   <si>
-    <t xml:space="preserve">Signup form: insert account data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create user profile account (checking if not already in)</t>
-  </si>
-  <si>
     <t xml:space="preserve">/signup</t>
   </si>
   <si>
-    <t xml:space="preserve">I: username+password; email address</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Mandatory fields: [username, password, email]; 2. check format fields: [email]; 3. Unique fields: [username, email]</t>
   </si>
   <si>
@@ -103,18 +85,9 @@
     <t xml:space="preserve">Password is lost: reset it</t>
   </si>
   <si>
-    <t xml:space="preserve">Recovery form: insert recovery email </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check for account-email validity. Send a reset-password link if true</t>
-  </si>
-  <si>
     <t xml:space="preserve">/passwd_recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">I: email address; O: success msg</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. email inserted must be == email set in AUTH-01</t>
   </si>
   <si>
@@ -127,18 +100,9 @@
     <t xml:space="preserve">Log in to application </t>
   </si>
   <si>
-    <t xml:space="preserve">Login form: insert account data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication (account data validation). Session start.</t>
-  </si>
-  <si>
     <t xml:space="preserve">/login</t>
   </si>
   <si>
-    <t xml:space="preserve">I: username+password</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Mandatory fields: [username, password]</t>
   </si>
   <si>
@@ -154,43 +118,25 @@
     <t xml:space="preserve">Log out from application</t>
   </si>
   <si>
-    <t xml:space="preserve">Home page: click on “logout” button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session destroy</t>
-  </si>
-  <si>
     <t xml:space="preserve">/logout</t>
   </si>
   <si>
     <t xml:space="preserve">1. Session started in AUTH-03</t>
   </si>
   <si>
-    <t xml:space="preserve">WIP</t>
-  </si>
-  <si>
     <t xml:space="preserve">POLL-01</t>
   </si>
   <si>
     <t xml:space="preserve">Pizza poll</t>
   </si>
   <si>
-    <t xml:space="preserve">Vote one (or more) pizza from menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home page: choose, one or more times, pizza(s) from a multiselect menu, and click button “Love it”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Every time button is clicked, vote is saved. A “success/failure” notification is showed. </t>
+    <t xml:space="preserve">Click “I love it button”</t>
   </si>
   <si>
     <t xml:space="preserve">/poll</t>
   </si>
   <si>
-    <t xml:space="preserve">I: choosed pizza(s); O: Exit status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Only auth user can vote. 2. At least one pizza item must be selected</t>
+    <t xml:space="preserve">1. Only auth user can vote.</t>
   </si>
   <si>
     <t xml:space="preserve">Before voting, should be choosen a preferred pizza? The “vote” can be submitted w/o choosing a preferred one?</t>
@@ -206,54 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">View “Top 10 voters” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home page: real time bar-chart with top-10 voters is showed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB dataset is fetched in real time, prepared and sent to the graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLL-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top pizzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View “Top N? pizzas”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home page: real time bar-chart with top-N? voted pizza is showed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is an extra feature, not in requirements. Discuss if it’s a valid feature, and details (eg: define N? Pizza(s) value)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENU-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create, edit or delete a “pizza” entry, from menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu manager: select “menu”, add/edit/delete item(s) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUD operations on selected item(s) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/admin/menu_manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I: pizza data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. only admin user can manage menu</t>
   </si>
   <si>
     <t xml:space="preserve">(*): Can be: N/D, WIP, OK</t>
@@ -269,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,11 +197,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -311,7 +204,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,20 +219,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -406,15 +293,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +346,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
@@ -495,28 +378,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="1:23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1989795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.6326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="84.8928571428571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="99.3469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.8316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="98.1377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,167 +425,125 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,169 +551,75 @@
       <c r="B6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>48</v>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>23</v>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>79</v>
+      <c r="A23" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/kcap-nevar-fun_reqs.xlsx
+++ b/docs/kcap-nevar-fun_reqs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t xml:space="preserve">Req status (*)</t>
   </si>
@@ -49,99 +49,105 @@
     <t xml:space="preserve">Notes, questions</t>
   </si>
   <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTH-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an account, to become a voter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mandatory fields: [username, password, email]; 2. check format fields: [email]; 3. Unique fields: [username, email]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTH-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password is lost: reset it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/passwd_recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. email inserted must be == email set in AUTH-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTH-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in to application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mandatory fields: [username, password]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTH-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authenticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log out from application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Session started in AUTH-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLL-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza poll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click “I love it button”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/poll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Only auth user can vote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each vote is registered – it increments a persistent a user_votes_sum</t>
+  </si>
+  <si>
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
-    <t xml:space="preserve">N/D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTH-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anonymous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create an account, to become a voter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/signup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mandatory fields: [username, password, email]; 2. check format fields: [email]; 3. Unique fields: [username, email]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTH-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password is lost: reset it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/passwd_recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. email inserted must be == email set in AUTH-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTH-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log in to application </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Mandatory fields: [username, password]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTH-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log out from application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Session started in AUTH-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLL-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza poll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click “I love it button”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/poll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Only auth user can vote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before voting, should be choosen a preferred pizza? The “vote” can be submitted w/o choosing a preferred one?</t>
-  </si>
-  <si>
     <t xml:space="preserve">POLL-02</t>
   </si>
   <si>
@@ -154,10 +160,13 @@
     <t xml:space="preserve">View “Top 10 voters” </t>
   </si>
   <si>
-    <t xml:space="preserve">(*): Can be: N/D, WIP, OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc revision: 20180621_1723</t>
+    <t xml:space="preserve">For each user is showed a bar in a chart with sum of POLL-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(*): Can be: N/D, WIP, OK, MAYBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc revision: 20180622_1523</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +228,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF99FF99"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -264,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,12 +296,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -346,7 +365,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF99FF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF9999"/>
@@ -380,13 +399,13 @@
   </sheetPr>
   <dimension ref="1:23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7857142857143"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8112244897959"/>
@@ -434,192 +453,192 @@
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>44</v>
+      <c r="A21" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
